--- a/biology/Zoologie/Comportements_alimentaires_des_herbivores/Comportements_alimentaires_des_herbivores.xlsx
+++ b/biology/Zoologie/Comportements_alimentaires_des_herbivores/Comportements_alimentaires_des_herbivores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Un phytophage, ou herbivore au sens large, est un organisme vivant qui se nourrit de végétaux. Suivant la partie végétale consommée, l'écologie végétale distingue plusieurs comportements alimentaires des herbivores[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Un phytophage, ou herbivore au sens large, est un organisme vivant qui se nourrit de végétaux. Suivant la partie végétale consommée, l'écologie végétale distingue plusieurs comportements alimentaires des herbivores :
 anthophage, qui se nourrit de fleurs ;
 baccivore qui se nourrit principalement de baies ;
 carpophage ou frugivore, qui se nourrit des fruits ou des fructifications des végétaux. Par exemple certains singes ;
@@ -498,7 +510,7 @@
 planctonivore, qui se nourrit de plancton ;
 pollinivore, qui se nourrit de pollen ;
 rhizophage ou radicivore, qui se nourrit des racines des végétaux ;
-succivore ou opophage (du latin succinum ou du grec opos, sève), qui se nourrit de la sève plus ou moins fermentée, qui se forme au niveau des plaies, artificielles ou naturelles, de l'écorce des plantes et surtout des arbres[2] ;
+succivore ou opophage (du latin succinum ou du grec opos, sève), qui se nourrit de la sève plus ou moins fermentée, qui se forme au niveau des plaies, artificielles ou naturelles, de l'écorce des plantes et surtout des arbres ;
 xylophage, qui se nourrit de tissus ligneux.</t>
         </is>
       </c>
